--- a/Analysis/TC/FS-TC.xlsx
+++ b/Analysis/TC/FS-TC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FS-UC1-seHistorik-TC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Nummer</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>login id : cpr?</t>
+  </si>
+  <si>
+    <t>ekstra passagerer : de øvrige op til 4 for 50% rabat (antal af passagerer max 5)</t>
   </si>
 </sst>
 </file>
@@ -589,8 +592,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1103,7 +1106,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1459,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Analysis/TC/FS-TC.xlsx
+++ b/Analysis/TC/FS-TC.xlsx
@@ -142,24 +142,12 @@
     <t>1) Jesper, 01-05-2016, 31-05-2016, Herning, 45,5 kr., Antal passagerer : 4, Antal ture : 2                        2) Juyoung, 01-05-2016, 31-05-2016, Herning, 28 kr., Antal passagerer : 3, Antal ture : 1</t>
   </si>
   <si>
-    <t>pris : 17,5 kr.</t>
-  </si>
-  <si>
     <t>Der er manglende obligatoriske oplysninger i kundens input</t>
   </si>
   <si>
-    <t>pris : 28 kr.</t>
-  </si>
-  <si>
     <t>pris : 35 kr.</t>
   </si>
   <si>
-    <t>Dato : 20-06-2016, Fra Kommune : Herning, Til Kommune : Aarhus, Antal Passagerer : 3, Ekstra tilbehør : 0, kommentar : ""</t>
-  </si>
-  <si>
-    <t>Dato : 21-06-2016, Fra Kommune : Herning, Til Kommune : Aarhus, Antal Passagerer : 1,  Ekstra tilbehør : kørestole, kommentar : ""</t>
-  </si>
-  <si>
     <t>Dato : 20-06-2016, Fra Kommune : Herning, Antal Passagerer : 1</t>
   </si>
   <si>
@@ -218,6 +206,18 @@
   </si>
   <si>
     <t>ekstra passagerer : de øvrige op til 4 for 50% rabat (antal af passagerer max 5)</t>
+  </si>
+  <si>
+    <t>Dato : 20-06-2016, Fra Kommune : Herning, Til Kommune : Aarhus, Antal Passagerer : 3, Ekstra tilbehør : 0, kommentar : "" afstand : 100km</t>
+  </si>
+  <si>
+    <t>pris : 2800 kr.</t>
+  </si>
+  <si>
+    <t>Dato : 21-06-2016, Fra Kommune : Herning, Til Kommune : Herning, Antal Passagerer : 1,  Ekstra tilbehør : kørestole, kommentar : "" afstand : 10km</t>
+  </si>
+  <si>
+    <t>pris : 140 kr.</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,14 +1100,14 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1119,10 +1119,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1133,13 +1133,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1150,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1167,13 +1167,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1513,17 +1513,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1532,13 +1532,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1549,13 +1549,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1566,13 +1566,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/Analysis/TC/FS-TC.xlsx
+++ b/Analysis/TC/FS-TC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\Analysis\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\git\flextur\Analysis\TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="FS-UC1-seHistorik-TC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Nummer</t>
   </si>
@@ -49,30 +49,9 @@
     <t>Pass/fail</t>
   </si>
   <si>
-    <t>vælg "se historik"</t>
-  </si>
-  <si>
-    <t>kunde : id: jesper - beder om at se historik : in database 2 historik data saved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kunde : id : juyoung - beder om at se historik : in database 1 historik data saved </t>
-  </si>
-  <si>
-    <t>kunde : jonas (historik - empty)</t>
-  </si>
-  <si>
     <t>Modtagelse1 er logget ind.</t>
   </si>
   <si>
-    <t>Modtagelse1 er logget ind. Søg efter en cpr-nummer, der ikke eksisterer.</t>
-  </si>
-  <si>
-    <t>Modtagelse1 er logget ind. Søg efter en tidsinterval, hvor data ikke eksisterer.</t>
-  </si>
-  <si>
-    <t>angiv (Fra 01-04-2016, Til 30-04-2016, Kommune : Ikast)</t>
-  </si>
-  <si>
     <t>angiv (Fra 01-04-2016, Til 30-04-2016, CPR Opslag : 170182-3628)</t>
   </si>
   <si>
@@ -82,66 +61,15 @@
     <t>angiv (Fra 01-05-2016, Til 31-05-2016, CPR Opslag : 170182-3628)</t>
   </si>
   <si>
-    <t>angiv (Fra 01-05-2016, Til 31-05-2016, CPR Opslag : 170182-1111)</t>
-  </si>
-  <si>
-    <t>csv-fil</t>
-  </si>
-  <si>
-    <t>Modtagelse1 er logget ind. Fra dato mangler.</t>
-  </si>
-  <si>
-    <t>angiv (Fra null, Til 31-05-2016, Kommune : Herning)</t>
-  </si>
-  <si>
     <t>MissingOplysningException</t>
   </si>
   <si>
-    <t>angiv (Fra 01-04-2016, Til 30-04-2016, Kommune : Aalborg)</t>
-  </si>
-  <si>
-    <t>NoKundeException</t>
-  </si>
-  <si>
-    <t>Tom list</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modtagelse 1 beder om CSV fil ekport.</t>
-  </si>
-  <si>
-    <t>Modtagelse 1 beder om CSV fil ekport.</t>
-  </si>
-  <si>
-    <t>angiv (Fra 01-05-2016, Til 31-05-2016, Kommune : Herning)   angiv(Eksporter CSV fil)</t>
-  </si>
-  <si>
-    <t>angiv (Fra 01-05-2016, Til 31-05-2016, CPR Opslag : 170182-3628)  angiv(Eksporter CSV fil)</t>
-  </si>
-  <si>
     <t>Modtagelse1 er logget ind. søger for en specifik kunde</t>
   </si>
   <si>
-    <t>UnknownKommuneException</t>
-  </si>
-  <si>
-    <t>Modtagelse1 er logget ind. Kommune er ikke matchet til flextur_sats.jar.</t>
-  </si>
-  <si>
     <t>kunde beder om at udrenge pris</t>
   </si>
   <si>
-    <t>Dato : 09-05-2016, Fra Kommune : Herning, Til Kommune : Aarhus, Pris : 28 kr., Antal Passagerer : 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (1 - Dato : 07-05-2016, Fra Kommune : Herning, Til Kommune : Aarhus, Pris : 17,5 kr., Antal Passagerer : 1)  (2 - Dato : 08-05-2016, Fra Kommune : Herning, Til Kommune : Aarhus, Pris : 28 kr., Antal Passagerer : 3)</t>
-  </si>
-  <si>
-    <t>Juyoung, 01-05-2016, 31-05-2016, Herning, 28 kr., Antal passagerer : 3, Antal ture : 1</t>
-  </si>
-  <si>
-    <t>1) Jesper, 01-05-2016, 31-05-2016, Herning, 45,5 kr., Antal passagerer : 4, Antal ture : 2                        2) Juyoung, 01-05-2016, 31-05-2016, Herning, 28 kr., Antal passagerer : 3, Antal ture : 1</t>
-  </si>
-  <si>
     <t>Der er manglende obligatoriske oplysninger i kundens input</t>
   </si>
   <si>
@@ -218,6 +146,51 @@
   </si>
   <si>
     <t>pris : 140 kr.</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>list.size() = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Juyoung, 01-05-2016, 31-05-2016, Herning, 100 kr., Antal passagerer : 6, Antal ture : 2) : list.size() = 1</t>
+  </si>
+  <si>
+    <t>list.size() = ´0</t>
+  </si>
+  <si>
+    <t>setCprNummer ("170182-3628")</t>
+  </si>
+  <si>
+    <t>angiv (Fra 01-05-2016, Til 31-05-2016)</t>
+  </si>
+  <si>
+    <t>list.size() = 2</t>
+  </si>
+  <si>
+    <t>angiv (Fra 21-05-2016, Til 31-05-2016)</t>
+  </si>
+  <si>
+    <t>HistorikSøgning : HistorikSøgningImpl : oplysninger mangler</t>
+  </si>
+  <si>
+    <t>setFraDato(null)</t>
+  </si>
+  <si>
+    <t>det skal ikke komme til FSController - rolleback : UC1_HistorikSøgning</t>
+  </si>
+  <si>
+    <t>UC1_OC2.java</t>
+  </si>
+  <si>
+    <t>exproterCSV</t>
+  </si>
+  <si>
+    <t>CSV fil gemt</t>
+  </si>
+  <si>
+    <t>gemt</t>
   </si>
 </sst>
 </file>
@@ -591,9 +564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,206 +609,216 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1048,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1097,17 +1080,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1116,13 +1099,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1133,13 +1116,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1150,13 +1133,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1167,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1513,17 +1496,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1532,13 +1515,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1549,13 +1532,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1566,13 +1549,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/Analysis/TC/FS-TC.xlsx
+++ b/Analysis/TC/FS-TC.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Nummer</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>setFraDato(null)</t>
-  </si>
-  <si>
-    <t>det skal ikke komme til FSController - rolleback : UC1_HistorikSøgning</t>
   </si>
   <si>
     <t>UC1_OC2.java</t>
@@ -565,8 +562,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>40</v>
@@ -649,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>40</v>
@@ -672,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>40</v>
@@ -695,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
@@ -718,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -739,9 +736,6 @@
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>40</v>
@@ -752,16 +746,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">

--- a/Analysis/TC/FS-TC.xlsx
+++ b/Analysis/TC/FS-TC.xlsx
@@ -580,7 +580,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD4"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,22 +716,22 @@
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -739,22 +739,22 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -774,7 +774,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1011,7 +1012,7 @@
     <mergeCell ref="B1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1020,7 +1021,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1410,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
